--- a/WorckWithKadastr/SHEM.xlsx
+++ b/WorckWithKadastr/SHEM.xlsx
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +430,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -798,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -811,6 +819,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1155,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1519,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1540,7 +1557,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1560,7 +1577,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1590,7 +1607,7 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1644,7 +1661,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1848,7 +1865,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">

--- a/WorckWithKadastr/SHEM.xlsx
+++ b/WorckWithKadastr/SHEM.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="345" windowWidth="18915" windowHeight="11790"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="18915" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHEM" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="87">
   <si>
     <t xml:space="preserve">	OBJECTID, Type - esriTypeOID</t>
   </si>
@@ -281,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +437,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -631,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -761,6 +780,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,7 +883,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -819,14 +896,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1172,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,23 +1599,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1522,17 +1623,17 @@
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1560,39 +1661,39 @@
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1610,15 +1711,15 @@
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1661,22 +1762,22 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1865,22 +1966,22 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2271,4 +2372,412 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WorckWithKadastr/SHEM.xlsx
+++ b/WorckWithKadastr/SHEM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="101">
   <si>
     <t xml:space="preserve">	OBJECTID, Type - esriTypeOID</t>
   </si>
@@ -276,13 +276,55 @@
   </si>
   <si>
     <t>KoordynatyZek</t>
+  </si>
+  <si>
+    <t>OBJECTID, Type - OID</t>
+  </si>
+  <si>
+    <t>KodObject, Type - Integer</t>
+  </si>
+  <si>
+    <t>NazvaPovnaUkr, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaKorotkaUkr, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaPovnaRus, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaKorotkaRus, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaPovnaLat, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaKorotkaLat, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaDocument, Type - String</t>
+  </si>
+  <si>
+    <t>DataDocument, Type - Date</t>
+  </si>
+  <si>
+    <t>NomerDocument, Type - String</t>
+  </si>
+  <si>
+    <t>LinkDocument, Type - String</t>
+  </si>
+  <si>
+    <t>Opys, Type - String</t>
+  </si>
+  <si>
+    <t>NazvaKorotksLat, Type - String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +504,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -650,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -784,10 +833,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -797,13 +857,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -818,7 +891,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -831,6 +904,81 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -883,7 +1031,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,39 +1043,94 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1271,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A20" sqref="A20:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,774 +1797,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s">
+        <v>83</v>
+      </c>
+      <c r="K94" t="s">
+        <v>84</v>
+      </c>
+      <c r="L94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>47</v>
+      </c>
+      <c r="J101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>61</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>50</v>
+      </c>
+      <c r="J104" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="K104" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="L104" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+      <c r="J105" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>53</v>
+      </c>
+      <c r="J107" t="s">
+        <v>26</v>
+      </c>
+      <c r="K107" t="s">
+        <v>26</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>54</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" t="s">
+        <v>62</v>
+      </c>
+      <c r="K109" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>56</v>
+      </c>
+      <c r="J110" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="K110" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>57</v>
+      </c>
+      <c r="J111" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="L111" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>60</v>
+      </c>
+      <c r="K112" t="s">
+        <v>60</v>
+      </c>
+      <c r="L112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>58</v>
+      </c>
+      <c r="J113" t="s">
+        <v>59</v>
+      </c>
+      <c r="K113" t="s">
+        <v>59</v>
+      </c>
+      <c r="L113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L165" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L171" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L172" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L175" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L176" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I117" t="s">
-        <v>82</v>
-      </c>
-      <c r="J117" t="s">
-        <v>83</v>
-      </c>
-      <c r="K117" t="s">
-        <v>84</v>
-      </c>
-      <c r="L117" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>14</v>
-      </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-      <c r="L118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I119" t="s">
-        <v>42</v>
-      </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I120" t="s">
-        <v>43</v>
-      </c>
-      <c r="J120" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I121" t="s">
-        <v>44</v>
-      </c>
-      <c r="J121" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" t="s">
-        <v>17</v>
-      </c>
-      <c r="L121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I122" t="s">
-        <v>45</v>
-      </c>
-      <c r="J122" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" t="s">
-        <v>18</v>
-      </c>
-      <c r="L122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>46</v>
-      </c>
-      <c r="J123" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" t="s">
-        <v>19</v>
-      </c>
-      <c r="L123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I124" t="s">
-        <v>47</v>
-      </c>
-      <c r="J124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>48</v>
-      </c>
-      <c r="J125" t="s">
-        <v>21</v>
-      </c>
-      <c r="K125" t="s">
-        <v>61</v>
-      </c>
-      <c r="L125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I126" t="s">
-        <v>49</v>
-      </c>
-      <c r="J126" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" t="s">
-        <v>22</v>
-      </c>
-      <c r="L126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>50</v>
-      </c>
-      <c r="J127" t="s">
-        <v>23</v>
-      </c>
-      <c r="K127" t="s">
-        <v>23</v>
-      </c>
-      <c r="L127" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>51</v>
-      </c>
-      <c r="J128" t="s">
-        <v>24</v>
-      </c>
-      <c r="K128" t="s">
-        <v>24</v>
-      </c>
-      <c r="L128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I129" t="s">
-        <v>52</v>
-      </c>
-      <c r="J129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K129" t="s">
-        <v>25</v>
-      </c>
-      <c r="L129" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>53</v>
-      </c>
-      <c r="J130" t="s">
-        <v>26</v>
-      </c>
-      <c r="K130" t="s">
-        <v>26</v>
-      </c>
-      <c r="L130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>54</v>
-      </c>
-      <c r="J131" t="s">
-        <v>27</v>
-      </c>
-      <c r="K131" t="s">
-        <v>27</v>
-      </c>
-      <c r="L131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I132" t="s">
-        <v>55</v>
-      </c>
-      <c r="J132" t="s">
-        <v>62</v>
-      </c>
-      <c r="K132" t="s">
-        <v>28</v>
-      </c>
-      <c r="L132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I133" t="s">
-        <v>56</v>
-      </c>
-      <c r="J133" t="s">
-        <v>29</v>
-      </c>
-      <c r="K133" t="s">
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L177" t="s">
         <v>30</v>
       </c>
-      <c r="L133" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I134" t="s">
-        <v>57</v>
-      </c>
-      <c r="J134" t="s">
-        <v>30</v>
-      </c>
-      <c r="K134" t="s">
-        <v>29</v>
-      </c>
-      <c r="L134" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I135" t="s">
-        <v>28</v>
-      </c>
-      <c r="J135" t="s">
-        <v>60</v>
-      </c>
-      <c r="K135" t="s">
-        <v>60</v>
-      </c>
-      <c r="L135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I136" t="s">
-        <v>58</v>
-      </c>
-      <c r="J136" t="s">
-        <v>59</v>
-      </c>
-      <c r="K136" t="s">
-        <v>59</v>
-      </c>
-      <c r="L136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L180" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L182" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L183" t="s">
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L178" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L184" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L186" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L188" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L189" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L190" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L192" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L194" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L195" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L196" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L198" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L200" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L201" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L202" t="s">
+    <row r="179" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L179" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2379,164 +2191,265 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="J1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="G1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2551,52 +2464,79 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2605,50 +2545,88 @@
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2657,127 +2635,223 @@
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F21" s="33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="G21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
   </sheetData>
+  <sortState ref="J2:J20">
+    <sortCondition ref="J2"/>
+  </sortState>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>